--- a/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.3/CV32E40Pv2_regression_known_failure.xlsx
+++ b/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.3/CV32E40Pv2_regression_known_failure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/OpenHW Group/RTL_freeze_v2_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\core-v-docs\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{D9A4852B-3695-42F0-A79A-3DF3377B19F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{754B0E9F-0531-43CB-BD06-107905568D99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC84571-A6E0-41EE-9AF5-F3CD705C9F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{558A017A-CB89-4642-8489-5B32B3FCA49A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{558A017A-CB89-4642-8489-5B32B3FCA49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_known_issue" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Random</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>Open (no fix)</t>
-  </si>
-  <si>
-    <t>corev_rand_fp_instr_debug_test_with_int_debug_trigger_and_single_step</t>
-  </si>
-  <si>
-    <t># (IDV) Instruction executed prior to mismatch '0x1a110d1e(debug_end+48): 02c3a587 flw     f11,44(x7)'</t>
   </si>
   <si>
     <t>Test generation corner case</t>
@@ -87,8 +81,21 @@
 This issue seen rarely, maybe 1 out of 2~3 regressions. Too risky to fix it now as it might affect other tests. </t>
   </si>
   <si>
-    <t>Load in Virtual Peripheral area
-x7 set to 0x0fffffce and going to 0x10000002 with some load address offset</t>
+    <t>Imperas Model</t>
+  </si>
+  <si>
+    <t>corev_rand_pulp_instr_test</t>
+  </si>
+  <si>
+    <t># Info (IDV) Instruction executed prior to mismatch '0x80(_start+0): 0800006f j       100'
+# Error (IDV) PC mismatch (HartId:0, PC:0x00000100 _start_main+0):
+# Error (IDV) Mismatch 0&gt;
+# Error (IDV)   . dut:0x1a110800 debug_rom+0
+# Error (IDV)   . ref:0x00000100 _start_main+0
+# Error (IDV) Insn. bit pattern mismatch (HartId:0, PC:0x00000100 _start_main+0):</t>
+  </si>
+  <si>
+    <t>Mismatch between RTL and Imperas model on first debug request</t>
   </si>
 </sst>
 </file>
@@ -513,7 +520,7 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,10 +569,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>11</v>
@@ -580,13 +587,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -598,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -610,6 +617,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="254d2fc45a10493323dcacd51be5aaf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="003ab9e0b5c5bed7880e662758cd0922" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -858,15 +874,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -879,6 +886,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{501FC33E-FA44-4510-8B0D-EC26BDB2B6BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2873F165-068F-468F-A91D-ECB4A96B4E48}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -897,14 +912,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{501FC33E-FA44-4510-8B0D-EC26BDB2B6BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645BCCA5-78F8-4F1E-B54F-0CA30D08BEEE}">
   <ds:schemaRefs>

--- a/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.3/CV32E40Pv2_regression_known_failure.xlsx
+++ b/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.3/CV32E40Pv2_regression_known_failure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\core-v-docs\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\git_repos\programs\programs\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC84571-A6E0-41EE-9AF5-F3CD705C9F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B219E542-51C4-45E4-8E37-A048D8F4C161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{558A017A-CB89-4642-8489-5B32B3FCA49A}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{558A017A-CB89-4642-8489-5B32B3FCA49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_known_issue" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Random</t>
   </si>
@@ -65,23 +65,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>corev_directed_for_hwloop_covg_test</t>
-  </si>
-  <si>
-    <t>test_program/corev_directed_for_hwloop_covg_test_550986902.S:826:(.text+0xbb4): relocation truncated to fit: R_RISCV_CVPCREL_UI12 against `hwloop1_end_stream1_id0'</t>
-  </si>
-  <si>
     <t>Open (no fix)</t>
   </si>
   <si>
     <t>Test generation corner case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruction number in HWLOOP body exceeding maximum number of instruction when using immediate version of HWLOOP instructions (cv.counti, cv.setupi).
-This issue seen rarely, maybe 1 out of 2~3 regressions. Too risky to fix it now as it might affect other tests. </t>
-  </si>
-  <si>
-    <t>Imperas Model</t>
   </si>
   <si>
     <t>corev_rand_pulp_instr_test</t>
@@ -97,12 +84,85 @@
   <si>
     <t>Mismatch between RTL and Imperas model on first debug request</t>
   </si>
+  <si>
+    <t>corev_rand_wfi_mem_stress_test</t>
+  </si>
+  <si>
+    <t># UVM_FATAL @ 50000000.000 ns : uvm_phase.svh(1506) reporter [PH_TIMEOUT] Explicit timeout of 50000000.000 ns hit, indicating a probable testbench issue</t>
+  </si>
+  <si>
+    <t>Test performance</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>regression: cv32e40pv2_interrupt_debug</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>RegressionCompleted: Regression finished at Wed May 29 21:59:52 2024
+VRM total elapsed time: 656m:49s
+( few weeks later ... )
+RegressionCompleted: Regression finished at Thu Jun 27 16:04:33 2024
+VRM total elapsed time: 4340m:54s</t>
+  </si>
+  <si>
+    <t>Due to randomness of external events vs code generation, some tests can run longer than expected and can timeout (e.g. CPU spending much more time in idle, too many illegal/interrupt causing much more handlers calls (and therefore much more instructions executed, ...)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Few weeks before ending CV32E40Pv2 on Dolphin's side, cv32e40pv2_interrupt_debug.yaml regression lasted 4-5x times longer that before. At this point we were not sure if the culprit was recent modifications or infrastructure issues inside our company (compute-farm, licence server, our Jenkins environment, etc.). </t>
+  </si>
+  <si>
+    <t>In very rare cases, the corev-dv instruction generator is producing a code that doesn't prevent context save to be stored at program memory location, and this risk is significantly higher when those context switching events are nested (nested interrupt, ...).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corev_rand_interrupt_nested </t>
+  </si>
+  <si>
+    <t># 1092476.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# Warning (RISCV_UDEC) CPU 'refRoot/cpu' 0x0001f4d2 00000077 undef: Undecoded instruction
+# 1093907.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# 1093910.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# 1093913.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# 1093916.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# 1093919.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# 1093922.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# Warning (RISCV_UDEC) CPU 'refRoot/cpu' 0x0001f4d2 00000077 undef: Undecoded instruction
+# 1095314.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# 1095317.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# 1095320.000 ns: Illegal instruction (core 0) at PC 0x0001f4d2:
+# Warning (RISCV_UDEC) CPU 'refRoot/cpu' 0x0001f4d2 00000077 undef: Undecoded instruction</t>
+  </si>
+  <si>
+    <t>From Synopsys:
+It looks as though the haltreq is getting consumed by some additional processing that is done at time zero; actually on the first instruction retirement.
+Analysis on-going on Synopsys R&amp;D side.</t>
+  </si>
+  <si>
+    <t>Reference Model</t>
+  </si>
+  <si>
+    <t>Solved by increasing time-out value for the few failing tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lot of corner cases have been corrected, but during the last regression this very last one appeared, and did not have the time to solve it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As it may not be a core-v-verif issue, we did not enter this as a separate issue. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +173,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,11 +229,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -182,9 +251,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -201,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -517,31 +608,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2801443F-571E-4F33-B8FF-9C74110C36E8}">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="60" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="10" width="50.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -562,56 +654,132 @@
       <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+    <row r="3" spans="2:10" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="11">
+        <v>2501</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
+      <c r="J3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="11">
+        <v>2497</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2502</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="core-v-verif/#2497" xr:uid="{F5B31C5B-4966-4425-93E7-B7D4597EB41D}"/>
+    <hyperlink ref="C5" r:id="rId2" display="core-v-verif/#2502" xr:uid="{05B753E1-D9FF-4DFB-829C-9B4F1E4701E5}"/>
+    <hyperlink ref="C3" r:id="rId3" display="core-v-verif/#2501" xr:uid="{2DDB5FFB-6A06-4604-BA39-E7470A8221AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -626,6 +794,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="254d2fc45a10493323dcacd51be5aaf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="003ab9e0b5c5bed7880e662758cd0922" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -874,17 +1053,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{501FC33E-FA44-4510-8B0D-EC26BDB2B6BF}">
   <ds:schemaRefs>
@@ -894,6 +1062,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645BCCA5-78F8-4F1E-B54F-0CA30D08BEEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2873F165-068F-468F-A91D-ECB4A96B4E48}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -910,15 +1089,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645BCCA5-78F8-4F1E-B54F-0CA30D08BEEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
-    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>